--- a/uloha8/uloha8.xlsx
+++ b/uloha8/uloha8.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nemec\david\school\praktika\uloha8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6226DACA-91A7-4A2C-934E-4FD06118E541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F70AC78-896B-419E-BD65-C7DF6CAEC1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7D89BB8E-BAF2-48F1-8549-58BD16157EFC}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
+    <sheet name="List2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
   <si>
     <t>A</t>
   </si>
@@ -99,6 +100,21 @@
   </si>
   <si>
     <t>f_r / kHz</t>
+  </si>
+  <si>
+    <t>f1</t>
+  </si>
+  <si>
+    <t>f2</t>
+  </si>
+  <si>
+    <t>fr</t>
+  </si>
+  <si>
+    <t>1/wr^2</t>
+  </si>
+  <si>
+    <t>cn</t>
   </si>
 </sst>
 </file>
@@ -741,7 +757,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1272,7 +1288,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1804,7 +1820,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2340,7 +2356,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="cs-CZ"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6212,8 +6228,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8383762E-D7D8-4727-91B3-7DC3C52B8287}">
   <dimension ref="A1:AA31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6304,7 +6320,7 @@
         <v>218.8</v>
       </c>
       <c r="T3">
-        <f>S3/$K$31</f>
+        <f t="shared" ref="T3:T31" si="0">S3/$K$31</f>
         <v>1.0411610754223175</v>
       </c>
       <c r="U3">
@@ -6315,13 +6331,13 @@
         <v>25</v>
       </c>
       <c r="W3">
-        <f>V3/MAX($V$3:$V$31)</f>
+        <f t="shared" ref="W3:W31" si="1">V3/MAX($V$3:$V$31)</f>
         <v>2.44140625E-2</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f t="shared" ref="A4:A7" si="0">AVERAGE(B4,C4)</f>
+        <f t="shared" ref="A4:A7" si="2">AVERAGE(B4,C4)</f>
         <v>514.75</v>
       </c>
       <c r="B4">
@@ -6334,7 +6350,7 @@
         <v>400</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E7" si="1">(2*3.1415926536*A4)^-2*10^10</f>
+        <f t="shared" ref="E4:E7" si="3">(2*3.1415926536*A4)^-2*10^10</f>
         <v>955.97724006008673</v>
       </c>
       <c r="G4" t="s">
@@ -6364,18 +6380,18 @@
         <v>217.3</v>
       </c>
       <c r="T4">
-        <f>S4/$K$31</f>
+        <f t="shared" si="0"/>
         <v>1.0340233166785631</v>
       </c>
       <c r="U4">
         <v>7</v>
       </c>
       <c r="V4">
-        <f t="shared" ref="V4:V31" si="2">U4^2</f>
+        <f t="shared" ref="V4:V31" si="4">U4^2</f>
         <v>49</v>
       </c>
       <c r="W4">
-        <f>V4/MAX($V$3:$V$31)</f>
+        <f t="shared" si="1"/>
         <v>4.78515625E-2</v>
       </c>
       <c r="X4" t="s">
@@ -6393,7 +6409,7 @@
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>429.45</v>
       </c>
       <c r="B5">
@@ -6406,11 +6422,11 @@
         <v>600</v>
       </c>
       <c r="E5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1373.4569430369377</v>
       </c>
       <c r="K5">
-        <f t="shared" ref="K5:K8" si="3">AVERAGE(L5,M5)</f>
+        <f t="shared" ref="K5:K8" si="5">AVERAGE(L5,M5)</f>
         <v>415.15</v>
       </c>
       <c r="L5">
@@ -6423,25 +6439,25 @@
         <v>400</v>
       </c>
       <c r="O5">
-        <f t="shared" ref="O5:O8" si="4">(2*3.1415926536*K5)^-2*10^10</f>
+        <f t="shared" ref="O5:O8" si="6">(2*3.1415926536*K5)^-2*10^10</f>
         <v>1469.7050240112994</v>
       </c>
       <c r="S5">
         <v>216.2</v>
       </c>
       <c r="T5">
-        <f>S5/$K$31</f>
+        <f t="shared" si="0"/>
         <v>1.0287889602664761</v>
       </c>
       <c r="U5">
         <v>9</v>
       </c>
       <c r="V5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
       <c r="W5">
-        <f>V5/MAX($V$3:$V$31)</f>
+        <f t="shared" si="1"/>
         <v>7.91015625E-2</v>
       </c>
       <c r="X5">
@@ -6463,7 +6479,7 @@
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>376.25</v>
       </c>
       <c r="B6">
@@ -6476,11 +6492,11 @@
         <v>800</v>
       </c>
       <c r="E6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1789.3168268196496</v>
       </c>
       <c r="K6">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>341.9</v>
       </c>
       <c r="L6">
@@ -6493,31 +6509,31 @@
         <v>600</v>
       </c>
       <c r="O6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2166.9159269898887</v>
       </c>
       <c r="S6">
         <v>215.4</v>
       </c>
       <c r="T6">
-        <f>S6/$K$31</f>
+        <f t="shared" si="0"/>
         <v>1.0249821556031407</v>
       </c>
       <c r="U6">
         <v>11</v>
       </c>
       <c r="V6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>121</v>
       </c>
       <c r="W6">
-        <f>V6/MAX($V$3:$V$31)</f>
+        <f t="shared" si="1"/>
         <v>0.1181640625</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>338.79999999999995</v>
       </c>
       <c r="B7">
@@ -6530,11 +6546,11 @@
         <v>1000</v>
       </c>
       <c r="E7">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2206.7516498973955</v>
       </c>
       <c r="K7">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>297.64999999999998</v>
       </c>
       <c r="L7">
@@ -6547,31 +6563,31 @@
         <v>800</v>
       </c>
       <c r="O7">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2859.0943645509683</v>
       </c>
       <c r="S7">
         <v>214.8</v>
       </c>
       <c r="T7">
-        <f>S7/$K$31</f>
+        <f t="shared" si="0"/>
         <v>1.0221270521056389</v>
       </c>
       <c r="U7">
         <v>13</v>
       </c>
       <c r="V7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>169</v>
       </c>
       <c r="W7">
-        <f>V7/MAX($V$3:$V$31)</f>
+        <f t="shared" si="1"/>
         <v>0.1650390625</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="K8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>266.95</v>
       </c>
       <c r="L8">
@@ -6584,25 +6600,25 @@
         <v>1000</v>
       </c>
       <c r="O8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3554.5155042415099</v>
       </c>
       <c r="S8">
         <v>214.2</v>
       </c>
       <c r="T8">
-        <f>S8/$K$31</f>
+        <f t="shared" si="0"/>
         <v>1.019271948608137</v>
       </c>
       <c r="U8">
         <v>15</v>
       </c>
       <c r="V8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>225</v>
       </c>
       <c r="W8">
-        <f>V8/MAX($V$3:$V$31)</f>
+        <f t="shared" si="1"/>
         <v>0.2197265625</v>
       </c>
     </row>
@@ -6611,18 +6627,18 @@
         <v>213.7</v>
       </c>
       <c r="T9">
-        <f>S9/$K$31</f>
+        <f t="shared" si="0"/>
         <v>1.0168926956935522</v>
       </c>
       <c r="U9">
         <v>17</v>
       </c>
       <c r="V9">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>289</v>
       </c>
       <c r="W9">
-        <f>V9/MAX($V$3:$V$31)</f>
+        <f t="shared" si="1"/>
         <v>0.2822265625</v>
       </c>
     </row>
@@ -6631,18 +6647,18 @@
         <v>213.3</v>
       </c>
       <c r="T10">
-        <f>S10/$K$31</f>
+        <f t="shared" si="0"/>
         <v>1.0149892933618845</v>
       </c>
       <c r="U10">
         <v>19</v>
       </c>
       <c r="V10">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>361</v>
       </c>
       <c r="W10">
-        <f>V10/MAX($V$3:$V$31)</f>
+        <f t="shared" si="1"/>
         <v>0.3525390625</v>
       </c>
     </row>
@@ -6651,18 +6667,18 @@
         <v>212.9</v>
       </c>
       <c r="T11">
-        <f>S11/$K$31</f>
+        <f t="shared" si="0"/>
         <v>1.0130858910302165</v>
       </c>
       <c r="U11">
         <v>21</v>
       </c>
       <c r="V11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>441</v>
       </c>
       <c r="W11">
-        <f>V11/MAX($V$3:$V$31)</f>
+        <f t="shared" si="1"/>
         <v>0.4306640625</v>
       </c>
     </row>
@@ -6671,18 +6687,18 @@
         <v>212.5</v>
       </c>
       <c r="T12">
-        <f>S12/$K$31</f>
+        <f t="shared" si="0"/>
         <v>1.0111824886985485</v>
       </c>
       <c r="U12">
         <v>23</v>
       </c>
       <c r="V12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>529</v>
       </c>
       <c r="W12">
-        <f>V12/MAX($V$3:$V$31)</f>
+        <f t="shared" si="1"/>
         <v>0.5166015625</v>
       </c>
     </row>
@@ -6691,18 +6707,18 @@
         <v>212.2</v>
       </c>
       <c r="T13">
-        <f>S13/$K$31</f>
+        <f t="shared" si="0"/>
         <v>1.0097549369497978</v>
       </c>
       <c r="U13">
         <v>25</v>
       </c>
       <c r="V13">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>625</v>
       </c>
       <c r="W13">
-        <f>V13/MAX($V$3:$V$31)</f>
+        <f t="shared" si="1"/>
         <v>0.6103515625</v>
       </c>
     </row>
@@ -6711,18 +6727,18 @@
         <v>211.8</v>
       </c>
       <c r="T14">
-        <f>S14/$K$31</f>
+        <f t="shared" si="0"/>
         <v>1.00785153461813</v>
       </c>
       <c r="U14">
         <v>27</v>
       </c>
       <c r="V14">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>729</v>
       </c>
       <c r="W14">
-        <f>V14/MAX($V$3:$V$31)</f>
+        <f t="shared" si="1"/>
         <v>0.7119140625</v>
       </c>
     </row>
@@ -6731,18 +6747,18 @@
         <v>211.4</v>
       </c>
       <c r="T15">
-        <f>S15/$K$31</f>
+        <f t="shared" si="0"/>
         <v>1.0059481322864621</v>
       </c>
       <c r="U15">
         <v>29</v>
       </c>
       <c r="V15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>841</v>
       </c>
       <c r="W15">
-        <f>V15/MAX($V$3:$V$31)</f>
+        <f t="shared" si="1"/>
         <v>0.8212890625</v>
       </c>
     </row>
@@ -6751,18 +6767,18 @@
         <v>210.8</v>
       </c>
       <c r="T16">
-        <f>S16/$K$31</f>
+        <f t="shared" si="0"/>
         <v>1.0030930287889603</v>
       </c>
       <c r="U16">
         <v>31</v>
       </c>
       <c r="V16">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>961</v>
       </c>
       <c r="W16">
-        <f>V16/MAX($V$3:$V$31)</f>
+        <f t="shared" si="1"/>
         <v>0.9384765625</v>
       </c>
     </row>
@@ -6771,18 +6787,18 @@
         <v>210.3</v>
       </c>
       <c r="T17">
-        <f>S17/$K$31</f>
+        <f t="shared" si="0"/>
         <v>1.0007137758743754</v>
       </c>
       <c r="U17">
         <v>32</v>
       </c>
       <c r="V17">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>1024</v>
       </c>
       <c r="W17">
-        <f>V17/MAX($V$3:$V$31)</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
@@ -6791,18 +6807,18 @@
         <v>209.5</v>
       </c>
       <c r="T18">
-        <f>S18/$K$31</f>
+        <f t="shared" si="0"/>
         <v>0.99690697121103966</v>
       </c>
       <c r="U18">
         <v>31</v>
       </c>
       <c r="V18">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>961</v>
       </c>
       <c r="W18">
-        <f>V18/MAX($V$3:$V$31)</f>
+        <f t="shared" si="1"/>
         <v>0.9384765625</v>
       </c>
     </row>
@@ -6811,18 +6827,18 @@
         <v>209</v>
       </c>
       <c r="T19">
-        <f>S19/$K$31</f>
+        <f t="shared" si="0"/>
         <v>0.99452771829645492</v>
       </c>
       <c r="U19">
         <v>29</v>
       </c>
       <c r="V19">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>841</v>
       </c>
       <c r="W19">
-        <f>V19/MAX($V$3:$V$31)</f>
+        <f t="shared" si="1"/>
         <v>0.8212890625</v>
       </c>
     </row>
@@ -6831,18 +6847,18 @@
         <v>208.6</v>
       </c>
       <c r="T20">
-        <f>S20/$K$31</f>
+        <f t="shared" si="0"/>
         <v>0.99262431596478695</v>
       </c>
       <c r="U20">
         <v>27</v>
       </c>
       <c r="V20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>729</v>
       </c>
       <c r="W20">
-        <f>V20/MAX($V$3:$V$31)</f>
+        <f t="shared" si="1"/>
         <v>0.7119140625</v>
       </c>
     </row>
@@ -6851,18 +6867,18 @@
         <v>208.2</v>
       </c>
       <c r="T21">
-        <f>S21/$K$31</f>
+        <f t="shared" si="0"/>
         <v>0.99072091363311909</v>
       </c>
       <c r="U21">
         <v>25</v>
       </c>
       <c r="V21">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>625</v>
       </c>
       <c r="W21">
-        <f>V21/MAX($V$3:$V$31)</f>
+        <f t="shared" si="1"/>
         <v>0.6103515625</v>
       </c>
     </row>
@@ -6871,18 +6887,18 @@
         <v>207.8</v>
       </c>
       <c r="T22">
-        <f>S22/$K$31</f>
+        <f t="shared" si="0"/>
         <v>0.98881751130145135</v>
       </c>
       <c r="U22">
         <v>23</v>
       </c>
       <c r="V22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>529</v>
       </c>
       <c r="W22">
-        <f>V22/MAX($V$3:$V$31)</f>
+        <f t="shared" si="1"/>
         <v>0.5166015625</v>
       </c>
     </row>
@@ -6891,18 +6907,18 @@
         <v>207.4</v>
       </c>
       <c r="T23">
-        <f>S23/$K$31</f>
+        <f t="shared" si="0"/>
         <v>0.98691410896978349</v>
       </c>
       <c r="U23">
         <v>21</v>
       </c>
       <c r="V23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>441</v>
       </c>
       <c r="W23">
-        <f>V23/MAX($V$3:$V$31)</f>
+        <f t="shared" si="1"/>
         <v>0.4306640625</v>
       </c>
     </row>
@@ -6911,18 +6927,18 @@
         <v>207</v>
       </c>
       <c r="T24">
-        <f>S24/$K$31</f>
+        <f t="shared" si="0"/>
         <v>0.98501070663811563</v>
       </c>
       <c r="U24">
         <v>19</v>
       </c>
       <c r="V24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>361</v>
       </c>
       <c r="W24">
-        <f>V24/MAX($V$3:$V$31)</f>
+        <f t="shared" si="1"/>
         <v>0.3525390625</v>
       </c>
     </row>
@@ -6937,18 +6953,18 @@
         <v>206.6</v>
       </c>
       <c r="T25">
-        <f>S25/$K$31</f>
+        <f t="shared" si="0"/>
         <v>0.98310730430644777</v>
       </c>
       <c r="U25">
         <v>17</v>
       </c>
       <c r="V25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>289</v>
       </c>
       <c r="W25">
-        <f>V25/MAX($V$3:$V$31)</f>
+        <f t="shared" si="1"/>
         <v>0.2822265625</v>
       </c>
     </row>
@@ -6975,18 +6991,18 @@
         <v>206.2</v>
       </c>
       <c r="T26">
-        <f>S26/$K$31</f>
+        <f t="shared" si="0"/>
         <v>0.9812039019747798</v>
       </c>
       <c r="U26">
         <v>15</v>
       </c>
       <c r="V26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>225</v>
       </c>
       <c r="W26">
-        <f>V26/MAX($V$3:$V$31)</f>
+        <f t="shared" si="1"/>
         <v>0.2197265625</v>
       </c>
     </row>
@@ -7029,24 +7045,24 @@
         <v>205.6</v>
       </c>
       <c r="T27">
-        <f>S27/$K$31</f>
+        <f t="shared" si="0"/>
         <v>0.97834879847727807</v>
       </c>
       <c r="U27">
         <v>13</v>
       </c>
       <c r="V27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>169</v>
       </c>
       <c r="W27">
-        <f>V27/MAX($V$3:$V$31)</f>
+        <f t="shared" si="1"/>
         <v>0.1650390625</v>
       </c>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B28">
-        <f t="shared" ref="B28:B31" si="5">AVERAGE(C28,D28)</f>
+        <f t="shared" ref="B28:B31" si="7">AVERAGE(C28,D28)</f>
         <v>491.25</v>
       </c>
       <c r="C28">
@@ -7059,11 +7075,11 @@
         <v>400</v>
       </c>
       <c r="F28">
-        <f t="shared" ref="F28:F31" si="6">(2*3.1415926536*B28)^-2*10^10</f>
+        <f t="shared" ref="F28:F31" si="8">(2*3.1415926536*B28)^-2*10^10</f>
         <v>1049.6273451216066</v>
       </c>
       <c r="K28">
-        <f t="shared" ref="K28:K31" si="7">AVERAGE(L28,M28)</f>
+        <f t="shared" ref="K28:K31" si="9">AVERAGE(L28,M28)</f>
         <v>326.95000000000005</v>
       </c>
       <c r="L28">
@@ -7076,31 +7092,31 @@
         <v>400</v>
       </c>
       <c r="O28">
-        <f t="shared" ref="O28:O31" si="8">(2*3.1415926536*K28)^-2*10^10</f>
+        <f t="shared" ref="O28:O31" si="10">(2*3.1415926536*K28)^-2*10^10</f>
         <v>2369.613851743828</v>
       </c>
       <c r="S28">
         <v>204.9</v>
       </c>
       <c r="T28">
-        <f>S28/$K$31</f>
+        <f t="shared" si="0"/>
         <v>0.97501784439685935</v>
       </c>
       <c r="U28">
         <v>11</v>
       </c>
       <c r="V28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>121</v>
       </c>
       <c r="W28">
-        <f>V28/MAX($V$3:$V$31)</f>
+        <f t="shared" si="1"/>
         <v>0.1181640625</v>
       </c>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>404.4</v>
       </c>
       <c r="C29">
@@ -7113,11 +7129,11 @@
         <v>600</v>
       </c>
       <c r="F29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1548.8807043405238</v>
       </c>
       <c r="K29">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>269.14999999999998</v>
       </c>
       <c r="L29">
@@ -7130,31 +7146,31 @@
         <v>600</v>
       </c>
       <c r="O29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>3496.644618081777</v>
       </c>
       <c r="S29">
         <v>204.2</v>
       </c>
       <c r="T29">
-        <f>S29/$K$31</f>
+        <f t="shared" si="0"/>
         <v>0.97168689031644051</v>
       </c>
       <c r="U29">
         <v>9</v>
       </c>
       <c r="V29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>81</v>
       </c>
       <c r="W29">
-        <f>V29/MAX($V$3:$V$31)</f>
+        <f t="shared" si="1"/>
         <v>7.91015625E-2</v>
       </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B30">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>351.95000000000005</v>
       </c>
       <c r="C30">
@@ -7167,11 +7183,11 @@
         <v>800</v>
       </c>
       <c r="F30">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2044.9294252618483</v>
       </c>
       <c r="K30">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>234.3</v>
       </c>
       <c r="L30">
@@ -7184,31 +7200,31 @@
         <v>800</v>
       </c>
       <c r="O30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>4614.192257177071</v>
       </c>
       <c r="S30">
         <v>203</v>
       </c>
       <c r="T30">
-        <f>S30/$K$31</f>
+        <f t="shared" si="0"/>
         <v>0.96597668332143705</v>
       </c>
       <c r="U30">
         <v>7</v>
       </c>
       <c r="V30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>49</v>
       </c>
       <c r="W30">
-        <f>V30/MAX($V$3:$V$31)</f>
+        <f t="shared" si="1"/>
         <v>4.78515625E-2</v>
       </c>
     </row>
     <row r="31" spans="2:23" x14ac:dyDescent="0.3">
       <c r="B31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>315.7</v>
       </c>
       <c r="C31">
@@ -7221,11 +7237,11 @@
         <v>1000</v>
       </c>
       <c r="F31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2541.5057669252578</v>
       </c>
       <c r="K31">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>210.15</v>
       </c>
       <c r="L31">
@@ -7238,25 +7254,25 @@
         <v>1000</v>
       </c>
       <c r="O31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>5735.6345821710556</v>
       </c>
       <c r="S31">
         <v>201.4</v>
       </c>
       <c r="T31">
-        <f>S31/$K$31</f>
+        <f t="shared" si="0"/>
         <v>0.95836307399476561</v>
       </c>
       <c r="U31">
         <v>5</v>
       </c>
       <c r="V31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>25</v>
       </c>
       <c r="W31">
-        <f>V31/MAX($V$3:$V$31)</f>
+        <f t="shared" si="1"/>
         <v>2.44140625E-2</v>
       </c>
     </row>
@@ -7265,4 +7281,121 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{742592FE-5EF2-4DFD-9B39-AAD9BDF0056C}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>695.09969999999998</v>
+      </c>
+      <c r="B3">
+        <v>676.59960000000001</v>
+      </c>
+      <c r="D3">
+        <f>List1!E3</f>
+        <v>538.49592427132825</v>
+      </c>
+      <c r="E3">
+        <f>List1!D3</f>
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>507.3</v>
+      </c>
+      <c r="B4">
+        <v>522.20000000000005</v>
+      </c>
+      <c r="D4">
+        <f>List1!E4</f>
+        <v>955.97724006008673</v>
+      </c>
+      <c r="E4">
+        <f>List1!D4</f>
+        <v>400</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>436</v>
+      </c>
+      <c r="B5">
+        <v>422.9</v>
+      </c>
+      <c r="D5">
+        <f>List1!E5</f>
+        <v>1373.4569430369377</v>
+      </c>
+      <c r="E5">
+        <f>List1!D5</f>
+        <v>600</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>370.3</v>
+      </c>
+      <c r="B6">
+        <v>382.2</v>
+      </c>
+      <c r="D6">
+        <f>List1!E6</f>
+        <v>1789.3168268196496</v>
+      </c>
+      <c r="E6">
+        <f>List1!D6</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>333.2</v>
+      </c>
+      <c r="B7">
+        <v>344.4</v>
+      </c>
+      <c r="D7">
+        <f>List1!E7</f>
+        <v>2206.7516498973955</v>
+      </c>
+      <c r="E7">
+        <f>List1!D7</f>
+        <v>1000</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/uloha8/uloha8.xlsx
+++ b/uloha8/uloha8.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nemec\david\school\praktika\uloha8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F70AC78-896B-419E-BD65-C7DF6CAEC1E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C191F359-AFD8-4E29-8092-D0248BECB552}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7D89BB8E-BAF2-48F1-8549-58BD16157EFC}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="28">
   <si>
     <t>A</t>
   </si>
@@ -115,6 +115,12 @@
   </si>
   <si>
     <t>cn</t>
+  </si>
+  <si>
+    <t>f_1 / kHz</t>
+  </si>
+  <si>
+    <t>f_2 / kHz</t>
   </si>
 </sst>
 </file>
@@ -6229,7 +6235,7 @@
   <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="79" zoomScaleNormal="79" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+      <selection activeCell="Y14" sqref="Y14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6249,6 +6255,12 @@
       <c r="A2" t="s">
         <v>20</v>
       </c>
+      <c r="B2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" t="s">
+        <v>27</v>
+      </c>
       <c r="D2" t="s">
         <v>19</v>
       </c>
@@ -6310,6 +6322,12 @@
       <c r="K3" t="s">
         <v>20</v>
       </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" t="s">
+        <v>27</v>
+      </c>
       <c r="N3" t="s">
         <v>19</v>
       </c>
@@ -6972,6 +6990,12 @@
       <c r="B26" t="s">
         <v>20</v>
       </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
       <c r="E26" t="s">
         <v>19</v>
       </c>
@@ -6980,6 +7004,12 @@
       </c>
       <c r="K26" t="s">
         <v>20</v>
+      </c>
+      <c r="L26" t="s">
+        <v>26</v>
+      </c>
+      <c r="M26" t="s">
+        <v>27</v>
       </c>
       <c r="N26" t="s">
         <v>19</v>
